--- a/Proyectos/2016/1/P1444 - CFCAMU, Rosa Marquez_AG/Calidad/No_conformidades.xlsx
+++ b/Proyectos/2016/1/P1444 - CFCAMU, Rosa Marquez_AG/Calidad/No_conformidades.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>REPORTE DE NO CONFORMIDADES P1444 - CFCAMU, Rosa Marquez_AG</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>Alma Yesenia</t>
-  </si>
-  <si>
-    <t>En proceso</t>
   </si>
   <si>
     <t>No existen tareas de planeacion cierre</t>
@@ -308,7 +305,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -403,9 +400,11 @@
       <c r="D5" s="5" t="n">
         <v>42399</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" t="n">
+        <v>42401</v>
+      </c>
       <c r="F5" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -414,7 +413,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>14</v>
@@ -422,9 +421,11 @@
       <c r="D6" s="5" t="n">
         <v>42398</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="5" t="n">
+        <v>42401</v>
+      </c>
       <c r="F6" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -433,7 +434,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>14</v>
@@ -441,9 +442,11 @@
       <c r="D7" s="5" t="n">
         <v>42398</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="5" t="n">
+        <v>42401</v>
+      </c>
       <c r="F7" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G7" s="3"/>
     </row>
@@ -452,7 +455,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>14</v>
@@ -460,9 +463,11 @@
       <c r="D8" s="5" t="n">
         <v>42398</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="5" t="n">
+        <v>42401</v>
+      </c>
       <c r="F8" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G8" s="3"/>
     </row>
@@ -471,7 +476,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>14</v>
@@ -479,13 +484,15 @@
       <c r="D9" s="5" t="n">
         <v>42398</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="5" t="n">
+        <v>42401</v>
+      </c>
       <c r="F9" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
         <v>13</v>
       </c>
